--- a/Guru99Bank/3 - Design & Execution/1 - Unit Testing/Bug_Track.xlsx
+++ b/Guru99Bank/3 - Design & Execution/1 - Unit Testing/Bug_Track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99Bank\3 - Design &amp; Execution\1 - Unit Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2C02B-9AA2-4A2E-BC15-FEE28B8EED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C12231E-FDCC-4BC3-9443-773F156F66C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analystics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>fixed bugs</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +437,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +655,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -726,62 +730,96 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-700E-4136-B6E8-9999D230C641}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
@@ -820,12 +858,57 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-700E-4136-B6E8-9999D230C641}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -856,56 +939,69 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Analystics!$E$8:$E$9</c:f>
+              <c:f>Analystics!$E$7:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Total bugs</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Open bugs</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Closed bugs</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed bugs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analystics!$F$8:$F$9</c:f>
+              <c:f>Analystics!$F$7:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,17 +1013,122 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="1079052063"/>
+        <c:axId val="1074272335"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:valAx>
+        <c:axId val="1074272335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1079052063"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1079052063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074272335"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1022,42 +1223,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1599,13 +1766,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}" name="Table1" displayName="Table1" ref="E5:F9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="E5:F9" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}" name="Table1" displayName="Table1" ref="E5:F10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="E5:F10" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1FC54D73-B609-485E-A36A-FB8B17D2E845}" name="Project name" dataDxfId="22" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{23B5D82D-6FA7-4324-BF7E-EC26ED8CE2F9}" name="GURU99" dataDxfId="21" dataCellStyle="Normal"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1902,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E5:F9"/>
+  <dimension ref="E5:F10"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -1957,6 +2124,15 @@
       <c r="F9" s="8">
         <f>COUNTIF(Bugs!B:B,"Close")</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="9">
+        <f>COUNTIF(Bugs!B:B,"fixed")</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1973,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C910716-8D9C-49EF-A4F1-78A2A50B9BEA}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
